--- a/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/10 - FUNCIONES MATEMÁTICAS/excel_fun_mat_06.xlsx
+++ b/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/10 - FUNCIONES MATEMÁTICAS/excel_fun_mat_06.xlsx
@@ -1,69 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="Radianes">Hoja2!$B$2:$B$14</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
-  <si>
-    <t>1 día =</t>
-  </si>
-  <si>
-    <t>1 hora=</t>
-  </si>
-  <si>
-    <t>Segundos</t>
-  </si>
-  <si>
-    <t>Dias</t>
-  </si>
-  <si>
-    <t>Horas</t>
-  </si>
-  <si>
-    <t>Minuto</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Años</t>
+  </si>
+  <si>
+    <t>Bienios</t>
+  </si>
+  <si>
+    <t>Trienios</t>
+  </si>
+  <si>
+    <t>Lustros</t>
+  </si>
+  <si>
+    <t>Días</t>
+  </si>
+  <si>
+    <t>Semanas completas</t>
+  </si>
+  <si>
+    <t>Días restantes</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>TRIMESTRE</t>
+  </si>
+  <si>
+    <t>Grados</t>
+  </si>
+  <si>
+    <t>Radianes</t>
+  </si>
+  <si>
+    <t>4*seno^2</t>
+  </si>
+  <si>
+    <t>Cos/2</t>
+  </si>
+  <si>
+    <t>Tan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Mangal"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD320"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,23 +122,109 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Texto explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -170,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,6 +338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,254 +514,604 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="3"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="5" width="11.42578125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="4" width="11.42578125"/>
+    <col min="5" max="5" width="11.5703125"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="1025" width="11.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="25.5">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>94</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>201</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>254</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>211</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>202</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>347</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>102</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>490</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>318</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>135</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <f>24*60</f>
-        <v>1440</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" ref="B2:B14" si="0">RADIANS(A2)</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="C2" s="6">
+        <f t="shared" ref="C2:C14" si="1">4*SIN(Radianes)^2</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="D2" s="7">
+        <f t="shared" ref="D2:D14" si="2">COS(Radianes)/2</f>
+        <v>0.43301270189221935</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E14" si="3">TAN(Radianes)</f>
+        <v>0.57735026918962573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6108652381980153</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3159597133486622</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" si="2"/>
+        <v>0.4095760221444959</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="3"/>
+        <v>0.70020753820970971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6527036446661389</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.38302222155948901</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="3"/>
+        <v>0.83909963117727993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3472963553338606</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.32139380484326968</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="3"/>
+        <v>1.19175359259421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95993108859688125</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6840402866513373</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.28678821817552308</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="3"/>
+        <v>1.4281480067421144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <f>B1*60</f>
-        <v>86400</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="3"/>
+        <v>1.7320508075688767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1344640137963142</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2855752193730785</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.21130913087034972</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="3"/>
+        <v>2.1445069205095586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>70</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
+        <v>3.5320888862379554</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.17101007166283441</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="3"/>
+        <v>2.7474774194546216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>75</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
+        <v>3.7320508075688776</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.12940952255126037</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="3"/>
+        <v>3.7320508075688776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>80</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8793852415718164</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="2"/>
+        <v>8.6824088833465207E-2</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="3"/>
+        <v>5.6712818196177066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>85</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4835298641951802</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9696155060244163</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="2"/>
+        <v>4.3577871373829069E-2</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="3"/>
+        <v>11.430052302761348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>90</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
-        <v>866795</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
-        <v>770583</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3">
-        <v>1009748</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3">
-        <v>5386105</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
-        <v>512529</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
-        <v>1115144</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3">
-        <v>654848</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
-        <v>485553</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3">
-        <v>859859</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3">
-        <v>729698</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
-        <v>1040503</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3">
-        <v>588394</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3">
-        <v>904564</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3">
-        <v>1039261</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3">
-        <v>1046280</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
-        <v>673993</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3">
-        <v>823142</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3">
-        <v>897007</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3">
-        <v>453795</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3">
-        <v>613680</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D14" s="7">
+        <f t="shared" si="2"/>
+        <v>3.06287113727155E-17</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="3"/>
+        <v>1.6324552277619072E+16</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="1" gridLines="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPágina &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/10 - FUNCIONES MATEMÁTICAS/excel_fun_mat_06.xlsx
+++ b/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/10 - FUNCIONES MATEMÁTICAS/excel_fun_mat_06.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="EJERCICIO 1" sheetId="1" r:id="rId1"/>
+    <sheet name="EJERCICIO 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Radianes">Hoja2!$B$2:$B$14</definedName>
+    <definedName name="Radianes">'EJERCICIO 2'!$B$2:$B$14</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -72,8 +72,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -141,9 +141,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -518,7 +518,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -806,7 +806,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C37" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -837,274 +837,118 @@
       <c r="A2">
         <v>30</v>
       </c>
-      <c r="B2" s="2">
-        <f t="shared" ref="B2:B14" si="0">RADIANS(A2)</f>
-        <v>0.52359877559829882</v>
-      </c>
-      <c r="C2" s="6">
-        <f t="shared" ref="C2:C14" si="1">4*SIN(Radianes)^2</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="D2" s="7">
-        <f t="shared" ref="D2:D14" si="2">COS(Radianes)/2</f>
-        <v>0.43301270189221935</v>
-      </c>
-      <c r="E2" s="8">
-        <f t="shared" ref="E2:E14" si="3">TAN(Radianes)</f>
-        <v>0.57735026918962573</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
         <v>35</v>
       </c>
-      <c r="B3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.6108652381980153</v>
-      </c>
-      <c r="C3" s="6">
-        <f t="shared" si="1"/>
-        <v>1.3159597133486622</v>
-      </c>
-      <c r="D3" s="7">
-        <f t="shared" si="2"/>
-        <v>0.4095760221444959</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" si="3"/>
-        <v>0.70020753820970971</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>40</v>
       </c>
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.69813170079773179</v>
-      </c>
-      <c r="C4" s="6">
-        <f t="shared" si="1"/>
-        <v>1.6527036446661389</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="2"/>
-        <v>0.38302222155948901</v>
-      </c>
-      <c r="E4" s="8">
-        <f t="shared" si="3"/>
-        <v>0.83909963117727993</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <v>45</v>
       </c>
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" si="1"/>
-        <v>1.9999999999999996</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="2"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" si="3"/>
-        <v>0.99999999999999989</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <v>50</v>
       </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.87266462599716477</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" si="1"/>
-        <v>2.3472963553338606</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="2"/>
-        <v>0.32139380484326968</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="3"/>
-        <v>1.19175359259421</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>55</v>
       </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.95993108859688125</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" si="1"/>
-        <v>2.6840402866513373</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="2"/>
-        <v>0.28678821817552308</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="3"/>
-        <v>1.4281480067421144</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>60</v>
       </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0471975511965976</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9999999999999996</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="2"/>
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="3"/>
-        <v>1.7320508075688767</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>65</v>
       </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1344640137963142</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="1"/>
-        <v>3.2855752193730785</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="2"/>
-        <v>0.21130913087034972</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="3"/>
-        <v>2.1445069205095586</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
         <v>70</v>
       </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2217304763960306</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" si="1"/>
-        <v>3.5320888862379554</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="2"/>
-        <v>0.17101007166283441</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="3"/>
-        <v>2.7474774194546216</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
         <v>75</v>
       </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3089969389957472</v>
-      </c>
-      <c r="C11" s="6">
-        <f t="shared" si="1"/>
-        <v>3.7320508075688776</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="2"/>
-        <v>0.12940952255126037</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="3"/>
-        <v>3.7320508075688776</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
         <v>80</v>
       </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3962634015954636</v>
-      </c>
-      <c r="C12" s="6">
-        <f t="shared" si="1"/>
-        <v>3.8793852415718164</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="2"/>
-        <v>8.6824088833465207E-2</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="3"/>
-        <v>5.6712818196177066</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
         <v>85</v>
       </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4835298641951802</v>
-      </c>
-      <c r="C13" s="6">
-        <f t="shared" si="1"/>
-        <v>3.9696155060244163</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="2"/>
-        <v>4.3577871373829069E-2</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" si="3"/>
-        <v>11.430052302761348</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
         <v>90</v>
       </c>
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="C14" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="2"/>
-        <v>3.06287113727155E-17</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="3"/>
-        <v>1.6324552277619072E+16</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
